--- a/doc/excel/党建/[sample_pm_eva_result]组织生活管理-评议结果导入样表.xlsx
+++ b/doc/excel/党建/[sample_pm_eva_result]组织生活管理-评议结果导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\学校-功能\导入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip.nuaa\doc\组织生活\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786CC5A-C715-4056-AED5-199319BC9537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D224CFB-4FC5-41D3-99CC-E909AF873654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="27315" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,12 +42,19 @@
     <t>评议结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>注意事项：
+1、党籍状态和评议结果请分别在下拉选中选择一个
+2、标红字段为必填字段
+3、导入前请删除注意事项，并合并此单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +87,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,13 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,14 +429,75 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{B64E34AC-0494-4801-930C-AE54AB66AF84}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C11:C1048576" xr:uid="{B64E34AC-0494-4801-930C-AE54AB66AF84}">
       <formula1>"正式党员,预备党员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{81B6BE33-2675-43CB-92CE-0C5176FE3BD7}">
-      <formula1>"优秀,良好,及格"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{013FF75F-5708-4A25-B70A-A17AA91C11E5}">
+      <formula1>"优秀,合格,基本合格,不合格"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
